--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291470.1409813036</v>
+        <v>286684.659827113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6910428.15556014</v>
+        <v>6037395.839817929</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13105198.29760689</v>
+        <v>12249539.32494795</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6288449.425086368</v>
+        <v>6647794.298520229</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08822281599025586</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>23.41874232709028</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>49.95404581763043</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -899,7 +901,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D5" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="X5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.57494323971402</v>
+        <v>15.45168316362484</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>1.761703922407411</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -1111,7 +1113,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>109.0606995868097</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,26 +1132,26 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C8" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>92.94867414296913</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -1221,16 +1223,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>22.86316277677821</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1345,10 +1347,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="U10" t="n">
-        <v>23.25994061538802</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>78.98621211465068</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="E11" t="n">
-        <v>202.5496269016835</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F11" t="n">
         <v>229.9609751381512</v>
@@ -1385,7 +1387,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="H11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>79.3667956667111</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1497,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>5.081723706586502</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.992894919221213</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>23.25994061538802</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="F14" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>229.9609751381512</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>202.5496269016835</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>229.9609751381512</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>229.9609751381512</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>229.9609751381512</v>
+        <v>316.5487336740557</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.859219748854</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
         <v>207.9625118881446</v>
@@ -1986,10 +1988,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>102.7579950781728</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2087,16 +2089,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>304.0074039714627</v>
+        <v>105.0093910323394</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>124.8665353205015</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>93.76149455263254</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>21.34821641893338</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>259.8220108548061</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>33.01699698630765</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.3579666917045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>213.5145938762728</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
@@ -2810,7 +2812,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>372.4089305243864</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67787267091717</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.7890777533882</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>97.61153143263847</v>
       </c>
     </row>
     <row r="32">
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>161.5843051175316</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>25.35996799970722</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -3193,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>159.3149947016333</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>271.4782620917436</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.93984954204063</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>95.98918911403655</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>408.8501556356427</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>226.3816667732198</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3752,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>313.2666781675496</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.5521040271435</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965524</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>116.8763835457721</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>119.8267326610451</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>319.6691071661385</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>164.9366423243502</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>229.9609751381512</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4068,7 +4070,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
         <v>87.41444223540508</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.70547507328007</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>109.0606995868097</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="C2" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="D2" t="n">
         <v>18.39687801105209</v>
@@ -4331,19 +4333,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L2" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M2" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N2" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O2" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P2" t="n">
         <v>919.8439005526046</v>
@@ -4352,28 +4354,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>715.3374317791771</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T2" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U2" t="n">
-        <v>482.9645045527716</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V2" t="n">
-        <v>482.9645045527716</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="W2" t="n">
-        <v>482.9645045527716</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="X2" t="n">
-        <v>250.6806912819119</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>730.5368229026162</v>
+        <v>429.8856289850839</v>
       </c>
       <c r="C3" t="n">
-        <v>579.8825924627084</v>
+        <v>429.8856289850839</v>
       </c>
       <c r="D3" t="n">
-        <v>449.7936250841888</v>
+        <v>299.7966616065643</v>
       </c>
       <c r="E3" t="n">
-        <v>313.3471341950765</v>
+        <v>299.7966616065643</v>
       </c>
       <c r="F3" t="n">
-        <v>188.9153280782083</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G3" t="n">
-        <v>68.85551015007273</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L3" t="n">
-        <v>586.8345910043187</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M3" t="n">
-        <v>586.8345910043187</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N3" t="n">
-        <v>586.8345910043187</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O3" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P3" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X3" t="n">
-        <v>730.5368229026162</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y3" t="n">
-        <v>730.5368229026162</v>
+        <v>581.6819634260453</v>
       </c>
     </row>
     <row r="4">
@@ -4489,10 +4491,10 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C5" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
         <v>18.39687801105209</v>
@@ -4571,16 +4573,16 @@
         <v>246.0582433978217</v>
       </c>
       <c r="L5" t="n">
-        <v>246.0582433978217</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M5" t="n">
-        <v>473.7196087845913</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N5" t="n">
         <v>701.380974171361</v>
       </c>
       <c r="O5" t="n">
-        <v>701.380974171361</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P5" t="n">
         <v>734.998340411656</v>
@@ -4604,13 +4606,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W5" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X5" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y5" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399.4262715371622</v>
+        <v>321.1053601114104</v>
       </c>
       <c r="C6" t="n">
-        <v>248.7720410972544</v>
+        <v>170.4511296715026</v>
       </c>
       <c r="D6" t="n">
-        <v>248.7720410972544</v>
+        <v>170.4511296715026</v>
       </c>
       <c r="E6" t="n">
-        <v>112.3255502081421</v>
+        <v>34.00463878239032</v>
       </c>
       <c r="F6" t="n">
-        <v>112.3255502081421</v>
+        <v>34.00463878239032</v>
       </c>
       <c r="G6" t="n">
-        <v>112.3255502081421</v>
+        <v>34.00463878239032</v>
       </c>
       <c r="H6" t="n">
-        <v>24.02813380874302</v>
+        <v>34.00463878239032</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4647,19 +4649,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
         <v>359.1732256175491</v>
       </c>
       <c r="M6" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="N6" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="O6" t="n">
         <v>586.8345910043187</v>
-      </c>
-      <c r="N6" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="O6" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
         <v>692.182535165835</v>
@@ -4683,13 +4685,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W6" t="n">
-        <v>919.8439005526046</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="X6" t="n">
-        <v>730.5368229026162</v>
+        <v>500.4195770359032</v>
       </c>
       <c r="Y6" t="n">
-        <v>551.2226059781235</v>
+        <v>321.1053601114104</v>
       </c>
     </row>
     <row r="7">
@@ -4747,16 +4749,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>918.064401641082</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="T7" t="n">
-        <v>360.8430140968712</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5592008260114</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="V7" t="n">
         <v>18.39687801105209</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C8" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="D8" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="E8" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F8" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="G8" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="G8" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4805,19 +4807,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L8" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M8" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N8" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O8" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P8" t="n">
         <v>919.8439005526046</v>
@@ -4826,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X8" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y8" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>578.7404884616549</v>
+        <v>760.996180350538</v>
       </c>
       <c r="C9" t="n">
-        <v>428.0862580217471</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D9" t="n">
-        <v>297.9972906432274</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E9" t="n">
-        <v>161.5507997541151</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F9" t="n">
-        <v>161.5507997541151</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G9" t="n">
-        <v>41.49098182597957</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H9" t="n">
-        <v>41.49098182597957</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4884,19 +4886,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L9" t="n">
-        <v>131.5118602307795</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M9" t="n">
-        <v>236.8598043922958</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N9" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O9" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P9" t="n">
         <v>919.8439005526046</v>
@@ -4905,28 +4907,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W9" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X9" t="n">
-        <v>730.5368229026162</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y9" t="n">
-        <v>730.5368229026162</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="C10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="D10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="E10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I10" t="n">
         <v>48.77514818495014</v>
@@ -4993,19 +4995,19 @@
         <v>360.8430140968712</v>
       </c>
       <c r="U10" t="n">
-        <v>337.3481245863783</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="W10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="X10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5023,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="D11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E11" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F11" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G11" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H11" t="n">
         <v>18.39687801105209</v>
@@ -5042,19 +5044,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L11" t="n">
         <v>246.0582433978217</v>
       </c>
-      <c r="L11" t="n">
-        <v>473.7196087845913</v>
-      </c>
       <c r="M11" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N11" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O11" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P11" t="n">
         <v>919.8439005526046</v>
@@ -5118,25 +5120,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K12" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L12" t="n">
-        <v>464.5211697790654</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M12" t="n">
-        <v>464.5211697790654</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O12" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P12" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
@@ -5145,25 +5147,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S12" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T12" t="n">
-        <v>607.9294116513819</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U12" t="n">
-        <v>397.8662683300237</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V12" t="n">
-        <v>175.3262667010907</v>
+        <v>697.3038989236717</v>
       </c>
       <c r="W12" t="n">
-        <v>170.1932124520134</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="X12" t="n">
-        <v>170.1932124520134</v>
+        <v>277.8795754069702</v>
       </c>
       <c r="Y12" t="n">
-        <v>170.1932124520134</v>
+        <v>98.56535848247745</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.5600872817448</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="C13" t="n">
-        <v>685.5470621108143</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="D13" t="n">
-        <v>529.9139490133291</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="E13" t="n">
-        <v>374.3551368725317</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="F13" t="n">
-        <v>217.0292020855046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="G13" t="n">
-        <v>48.77514818495014</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H13" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I13" t="n">
         <v>48.77514818495014</v>
@@ -5221,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T13" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U13" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="V13" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="X13" t="n">
-        <v>687.5600872817448</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="Y13" t="n">
-        <v>687.5600872817448</v>
+        <v>360.8430140968712</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="C14" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="D14" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="E14" t="n">
         <v>482.9645045527716</v>
-      </c>
-      <c r="C14" t="n">
-        <v>482.9645045527716</v>
-      </c>
-      <c r="D14" t="n">
-        <v>482.9645045527716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>250.6806912819119</v>
       </c>
       <c r="F14" t="n">
         <v>250.6806912819119</v>
@@ -5276,25 +5278,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K14" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L14" t="n">
-        <v>163.0466509198802</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M14" t="n">
-        <v>163.0466509198802</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N14" t="n">
-        <v>279.6756096381168</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O14" t="n">
-        <v>507.3369750248864</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P14" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5309,19 +5311,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U14" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V14" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W14" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X14" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y14" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="15">
@@ -5355,10 +5357,10 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K15" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L15" t="n">
         <v>236.8598043922958</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>919.8439005526046</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C17" t="n">
-        <v>715.2483178236314</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="D17" t="n">
-        <v>715.2483178236314</v>
+        <v>1186.537129085381</v>
       </c>
       <c r="E17" t="n">
-        <v>482.9645045527716</v>
+        <v>783.9536042019251</v>
       </c>
       <c r="F17" t="n">
-        <v>250.6806912819119</v>
+        <v>367.0591657319029</v>
       </c>
       <c r="G17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0466509198802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>163.0466509198802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>390.7080163066498</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>618.3693816934194</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>846.030747080189</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>846.030747080189</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>846.030747080189</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.39687801105209</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C18" t="n">
-        <v>18.39687801105209</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D18" t="n">
-        <v>18.39687801105209</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E18" t="n">
-        <v>18.39687801105209</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F18" t="n">
-        <v>18.39687801105209</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G18" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39687801105209</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>18.39687801105209</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>18.39687801105209</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>246.0582433978217</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>473.7196087845913</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N18" t="n">
-        <v>701.380974171361</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>919.8439005526046</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>919.8439005526046</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>784.9132234524734</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>784.9132234524734</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>574.8500801311152</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>352.3100785021823</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>122.1928326354691</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>18.39687801105209</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.39687801105209</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N19" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O19" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P19" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>919.8439005526046</v>
+        <v>834.4501588705843</v>
       </c>
       <c r="T19" t="n">
-        <v>919.8439005526046</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U19" t="n">
-        <v>687.5600872817448</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V19" t="n">
-        <v>687.5600872817448</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W19" t="n">
-        <v>455.276274010885</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X19" t="n">
-        <v>222.9924607400252</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2365.64850507718</v>
+        <v>1345.1624478458</v>
       </c>
       <c r="C20" t="n">
-        <v>1972.473003580111</v>
+        <v>951.9869463487307</v>
       </c>
       <c r="D20" t="n">
-        <v>1587.031874796779</v>
+        <v>566.5458175653985</v>
       </c>
       <c r="E20" t="n">
-        <v>1184.448349913323</v>
+        <v>566.5458175653985</v>
       </c>
       <c r="F20" t="n">
-        <v>767.5539114433008</v>
+        <v>566.5458175653985</v>
       </c>
       <c r="G20" t="n">
-        <v>354.3911559313039</v>
+        <v>153.3830620534016</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
         <v>406.2953261290054</v>
@@ -5765,37 +5767,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="Y20" t="n">
-        <v>2365.64850507718</v>
+        <v>1745.657193557197</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J21" t="n">
-        <v>160.4279523212711</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K21" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>160.4279523212711</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>623.6437572083089</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5874,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154361</v>
+        <v>654.6538853416623</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154361</v>
+        <v>499.0207722441771</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154361</v>
+        <v>499.0207722441771</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154361</v>
+        <v>341.69483745715</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154361</v>
+        <v>173.4407835565956</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5935,25 +5937,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S22" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T22" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U22" t="n">
-        <v>313.2923152807194</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V22" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W22" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X22" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>371.396020535053</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="C23" t="n">
-        <v>371.396020535053</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="D23" t="n">
-        <v>371.396020535053</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="E23" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F23" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -5996,43 +5998,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2270.939924720986</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>1928.833115424504</v>
+        <v>2344.08465010856</v>
       </c>
       <c r="W23" t="n">
-        <v>1557.834080392792</v>
+        <v>1973.085615076847</v>
       </c>
       <c r="X23" t="n">
-        <v>1168.381475325849</v>
+        <v>1583.633010009904</v>
       </c>
       <c r="Y23" t="n">
-        <v>771.8907662464499</v>
+        <v>1187.142300930505</v>
       </c>
     </row>
     <row r="24">
@@ -6060,16 +6062,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L24" t="n">
         <v>530.8790559998569</v>
@@ -6078,10 +6080,10 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P24" t="n">
         <v>2365.648505077179</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.5180880355544</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M25" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N25" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O25" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S25" t="n">
-        <v>745.9439088256454</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T25" t="n">
-        <v>745.9439088256454</v>
+        <v>2298.950021541724</v>
       </c>
       <c r="U25" t="n">
-        <v>745.9439088256454</v>
+        <v>2013.511229783625</v>
       </c>
       <c r="V25" t="n">
-        <v>479.9645636464696</v>
+        <v>1747.531884604449</v>
       </c>
       <c r="W25" t="n">
-        <v>217.5180880355544</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="X25" t="n">
-        <v>217.5180880355544</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.5180880355544</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>466.1046008912472</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C26" t="n">
-        <v>466.1046008912472</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D26" t="n">
-        <v>80.66347210791497</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V26" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W26" t="n">
-        <v>1652.542660748986</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X26" t="n">
-        <v>1263.090055682043</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y26" t="n">
-        <v>866.5993466026441</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212711</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N27" t="n">
-        <v>1549.231189288413</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1627.674178072448</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C28" t="n">
-        <v>1627.674178072448</v>
+        <v>839.5634350659138</v>
       </c>
       <c r="D28" t="n">
-        <v>1627.674178072448</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E28" t="n">
-        <v>1627.674178072448</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F28" t="n">
-        <v>1627.674178072448</v>
+        <v>371.045575040604</v>
       </c>
       <c r="G28" t="n">
-        <v>1627.674178072448</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H28" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W28" t="n">
-        <v>2082.318103008358</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X28" t="n">
-        <v>1848.237780791341</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y28" t="n">
-        <v>1627.674178072448</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1541.150724783771</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C29" t="n">
-        <v>1541.150724783771</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D29" t="n">
-        <v>1541.150724783771</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E29" t="n">
-        <v>1138.567199900315</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F29" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G29" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V29" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W29" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X29" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y29" t="n">
-        <v>1541.150724783771</v>
+        <v>1989.47786818386</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L30" t="n">
-        <v>367.0521161637701</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M30" t="n">
-        <v>952.5501211703722</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
         <v>2341.731461975244</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.2615334888044</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C31" t="n">
-        <v>163.2615334888044</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K31" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M31" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N31" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O31" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P31" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U31" t="n">
-        <v>663.3212008849971</v>
+        <v>2080.20971331908</v>
       </c>
       <c r="V31" t="n">
-        <v>397.3418557058213</v>
+        <v>2080.20971331908</v>
       </c>
       <c r="W31" t="n">
-        <v>397.3418557058213</v>
+        <v>1796.879311250258</v>
       </c>
       <c r="X31" t="n">
-        <v>163.2615334888044</v>
+        <v>1562.798989033241</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.2615334888044</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
     <row r="32">
@@ -6677,61 +6679,61 @@
         <v>440.488471598613</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L32" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M32" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.445445502115</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O32" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>1997.925566488064</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V32" t="n">
         <v>1997.925566488064</v>
@@ -6771,34 +6773,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L33" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479597</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
         <v>2341.731461975244</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.201482535628</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.201482535628</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535628</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535628</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V34" t="n">
-        <v>2204.724268004823</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W34" t="n">
-        <v>1921.393865936001</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X34" t="n">
-        <v>1687.313543718984</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y34" t="n">
-        <v>1464.201482535628</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>825.9296003819453</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C35" t="n">
-        <v>432.7540988848759</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="D35" t="n">
-        <v>47.31297010154361</v>
+        <v>1186.537129085381</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>783.9536042019251</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>783.9536042019251</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1231.283934773481</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1759.095218410943</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O35" t="n">
-        <v>2199.134819303272</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2268.120389805085</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2268.120389805085</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V35" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W35" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.915055172741</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y35" t="n">
-        <v>1226.424346093342</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E36" t="n">
         <v>429.4892645340348</v>
@@ -7005,28 +7007,28 @@
         <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K36" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>963.7331842818107</v>
+        <v>443.767120918104</v>
       </c>
       <c r="M36" t="n">
-        <v>1545.785408515687</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N36" t="n">
-        <v>2131.283413522289</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O36" t="n">
         <v>2131.283413522289</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7117,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>851.8012157602309</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>616.082163928465</v>
       </c>
       <c r="U37" t="n">
-        <v>100.8850758683575</v>
+        <v>330.643372170366</v>
       </c>
       <c r="V37" t="n">
-        <v>100.8850758683575</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y37" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2058.57031924742</v>
+        <v>1256.051951669587</v>
       </c>
       <c r="C38" t="n">
-        <v>1665.394817750351</v>
+        <v>862.876450172517</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>862.876450172517</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>460.2929252890615</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>460.2929252890615</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="Y38" t="n">
-        <v>2365.64850507718</v>
+        <v>1256.051951669587</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>367.05211616377</v>
       </c>
       <c r="L39" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620832</v>
       </c>
       <c r="M39" t="n">
-        <v>952.5501211703722</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1951.406783011508</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C40" t="n">
-        <v>1951.406783011508</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D40" t="n">
-        <v>1951.406783011508</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E40" t="n">
-        <v>1951.406783011508</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F40" t="n">
-        <v>1951.406783011508</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W40" t="n">
-        <v>1951.406783011508</v>
+        <v>720.0916423671165</v>
       </c>
       <c r="X40" t="n">
-        <v>1951.406783011508</v>
+        <v>486.0113201500996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1951.406783011508</v>
+        <v>262.8992589667429</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1742.373856308063</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C41" t="n">
-        <v>1742.373856308063</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D41" t="n">
-        <v>1742.373856308063</v>
+        <v>1183.221921503051</v>
       </c>
       <c r="E41" t="n">
-        <v>1339.790331424607</v>
+        <v>780.6383966195958</v>
       </c>
       <c r="F41" t="n">
-        <v>922.895892954585</v>
+        <v>363.7439581495736</v>
       </c>
       <c r="G41" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y41" t="n">
-        <v>2142.86860201946</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="42">
@@ -7482,58 +7484,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.990048232789</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.51033082377</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>336.6041277001235</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="C43" t="n">
-        <v>336.6041277001235</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>336.6041277001235</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>336.6041277001235</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>336.6041277001235</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V43" t="n">
-        <v>336.6041277001235</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W43" t="n">
-        <v>336.6041277001235</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X43" t="n">
-        <v>336.6041277001235</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="Y43" t="n">
-        <v>336.6041277001235</v>
+        <v>165.3699231780811</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>482.9645045527717</v>
+        <v>772.7945830316037</v>
       </c>
       <c r="C44" t="n">
-        <v>482.9645045527717</v>
+        <v>772.7945830316037</v>
       </c>
       <c r="D44" t="n">
-        <v>250.6806912819119</v>
+        <v>772.7945830316037</v>
       </c>
       <c r="E44" t="n">
-        <v>250.6806912819119</v>
+        <v>370.2110581481482</v>
       </c>
       <c r="F44" t="n">
-        <v>250.6806912819119</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G44" t="n">
-        <v>250.6806912819119</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>18.3968780110521</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>246.0582433978217</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>246.0582433978217</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>473.7196087845914</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N44" t="n">
-        <v>473.7196087845914</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O44" t="n">
-        <v>507.3369750248865</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>734.9983404116562</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>881.8509868381267</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>881.8509868381267</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T44" t="n">
-        <v>715.2483178236315</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U44" t="n">
-        <v>482.9645045527717</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V44" t="n">
-        <v>482.9645045527717</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W44" t="n">
-        <v>482.9645045527717</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X44" t="n">
-        <v>482.9645045527717</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="Y44" t="n">
-        <v>482.9645045527717</v>
+        <v>1173.289328743001</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>697.7030432229475</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C45" t="n">
-        <v>547.0488127830397</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D45" t="n">
-        <v>416.95984540452</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E45" t="n">
-        <v>280.5133545154077</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>156.0815483985396</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>156.0815483985396</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H45" t="n">
-        <v>67.7841319991405</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J45" t="n">
-        <v>18.3968780110521</v>
+        <v>160.4279523212709</v>
       </c>
       <c r="K45" t="n">
-        <v>18.3968780110521</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>246.0582433978217</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="M45" t="n">
-        <v>473.7196087845914</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="N45" t="n">
-        <v>473.7196087845914</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>692.1825351658351</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>919.8439005526047</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526047</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>919.8439005526047</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>742.8600887515132</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>742.8600887515132</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>742.8600887515132</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>742.8600887515132</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>742.8600887515132</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.7030432229475</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>796.5455384059752</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>795.9429111851817</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>593.126827367731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>360.8430140968712</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>128.5592008260114</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>18.3968780110521</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>18.3968780110521</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
         <v>373.9177923378086</v>
@@ -7988,13 +7990,13 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>197.4002179655265</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,19 +8221,19 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>183.520773020354</v>
       </c>
       <c r="P5" t="n">
-        <v>184.2583828371828</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,22 +8297,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q6" t="n">
         <v>320.9491282940651</v>
@@ -8453,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>363.7280257865542</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
         <v>379.6860267358784</v>
@@ -8465,10 +8467,10 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>370.971069848242</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,22 +8534,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O9" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8690,22 +8692,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>370.3946742050441</v>
       </c>
       <c r="N11" t="n">
-        <v>369.7881139451009</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P11" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8766,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>196.4724116665307</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O12" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M14" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>266.925520346104</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O14" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>380.2624223790764</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>196.4724116665307</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M15" t="n">
         <v>322.3480971874631</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>379.6860267358784</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>379.0794664759352</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>219.0574392996201</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,25 +9242,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>315.3330879923178</v>
+        <v>569.9919810238536</v>
       </c>
       <c r="O18" t="n">
-        <v>313.3571814962057</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9413,7 +9415,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9477,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>560.2818744604613</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9644,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>466.2265087279361</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9723,16 +9725,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9875,10 +9877,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9890,7 +9892,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9951,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9962,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>384.8576652182069</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
-        <v>507.6329599720908</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10112,7 +10114,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10124,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10191,16 +10193,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>344.5555886567312</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10352,7 +10354,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,7 +10363,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
@@ -10425,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>395.3134182086922</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10586,7 +10588,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10598,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P35" t="n">
-        <v>318.4970894367924</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10662,22 +10664,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>167.5502506491747</v>
       </c>
       <c r="M36" t="n">
-        <v>680.3186616794895</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10835,7 +10837,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10905,13 +10907,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>99.85242174740841</v>
       </c>
       <c r="N39" t="n">
-        <v>344.5555886567312</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11060,25 +11062,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846782</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11139,22 +11141,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>121.5663691156888</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>373.0193783173885</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>379.6860267358784</v>
+        <v>155.1237765063179</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>183.5207730203541</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>380.2624223790764</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118429</v>
       </c>
       <c r="O45" t="n">
-        <v>313.3571814962058</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>317.0443399574658</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11467,7 +11469,7 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>254.3449995307767</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
         <v>210.6102387699041</v>
@@ -22550,7 +22552,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>335.1901313802018</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.1773736001872</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>99.76874572860923</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>37.46039641777465</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -22689,10 +22691,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22787,7 +22789,7 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D5" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22844,10 +22846,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>137.3280695432443</v>
+        <v>164.7394177797119</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22878,10 +22880,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3184382084935</v>
+        <v>33.44169828458268</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22923,7 +22925,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>120.9002755513414</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22999,7 +23001,7 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>154.2588521405743</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>186.6941195804153</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23033,10 +23035,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>244.4116007317834</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23084,7 +23086,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>56.19901399253958</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.03021867142931</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
@@ -23163,7 +23165,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
         <v>177.5210747552478</v>
@@ -23194,10 +23196,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,10 +23235,10 @@
         <v>3.400886175297046</v>
       </c>
       <c r="U10" t="n">
-        <v>259.32446322513</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>184.3333396127333</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23261,10 +23263,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938154</v>
       </c>
       <c r="E11" t="n">
-        <v>196.0080627329374</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F11" t="n">
         <v>182.7645189471708</v>
@@ -23273,7 +23275,7 @@
         <v>179.0701528187257</v>
       </c>
       <c r="H11" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>70.91157542984062</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -23385,25 +23387,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>222.7343497014595</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23416,25 +23418,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>166.5101718354495</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>143.3115727461609</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
@@ -23479,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23501,10 +23503,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>168.5967144964697</v>
+        <v>196.0080627329374</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
         <v>179.0701528187257</v>
@@ -23549,7 +23551,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>50.64557536806387</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23561,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>186.6941195804152</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>168.5967144964697</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>182.7645189471708</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>179.0701528187257</v>
+        <v>92.48239428282119</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>84.65601179531564</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23938,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>52.62342870236691</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.33131366983966</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.83481595771156</v>
+        <v>215.8328288968348</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24020,7 +24022,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,22 +24129,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>29.0572302076195</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>210.2831670182382</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24212,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>159.4337077171148</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>317.3375247845834</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24412,19 +24414,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133472</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>20.67508719332807</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>365.5406926483132</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24500,16 +24502,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24601,28 +24603,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.522973879818579</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>199.2109002090492</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -24746,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>20.11687146421849</v>
       </c>
     </row>
     <row r="30">
@@ -24841,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>39.28770421312221</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>123.2694091388846</v>
       </c>
     </row>
     <row r="32">
@@ -24962,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>59.6812912986459</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>227.8352342700401</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25081,22 +25083,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25132,16 +25134,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>104.0045570257508</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>137.5528658651332</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>105.9085699663193</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25217,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25327,7 +25329,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>100.8873808189751</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>104.7987338652396</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1809723212340941</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25561,13 +25563,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214576</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -25609,13 +25611,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>54.11543127491436</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>95.76444978932722</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.9736979614614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>51.62668320889858</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25795,10 +25797,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>35.92594277811165</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>151.6257423573477</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>93.05638691918347</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>90.88124479102305</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25910,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>56.32895409182728</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>23.23422713159619</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25956,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.8155996819678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>3.400886175297018</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236688</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>154.2588521405743</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>420945.8390147594</v>
+        <v>420945.8390147597</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420945.8390147598</v>
+        <v>420945.8390147597</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>420945.8390147596</v>
+        <v>677730.397527859</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677730.3975278592</v>
+        <v>677730.3975278584</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677730.3975278591</v>
+        <v>677730.3975278592</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677730.3975278592</v>
+        <v>677730.3975278587</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677730.397527859</v>
+        <v>677730.3975278591</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677730.3975278594</v>
+        <v>677730.397527859</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677730.3975278592</v>
+        <v>677730.397527859</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420945.8390147596</v>
+        <v>677730.3975278592</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>77161.27852224624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77161.27852224624</v>
+      </c>
+      <c r="D2" t="n">
         <v>77161.27852224626</v>
       </c>
-      <c r="C2" t="n">
-        <v>77161.27852224626</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>77161.27852224624</v>
-      </c>
-      <c r="E2" t="n">
-        <v>77161.27852224627</v>
       </c>
       <c r="F2" t="n">
         <v>77161.27852224627</v>
       </c>
       <c r="G2" t="n">
-        <v>77161.27852224628</v>
+        <v>124222.5220184881</v>
       </c>
       <c r="H2" t="n">
         <v>124222.5220184881</v>
@@ -26344,7 +26346,7 @@
         <v>124222.5220184881</v>
       </c>
       <c r="M2" t="n">
-        <v>124222.5220184881</v>
+        <v>124222.522018488</v>
       </c>
       <c r="N2" t="n">
         <v>124222.5220184881</v>
@@ -26353,7 +26355,7 @@
         <v>124222.5220184881</v>
       </c>
       <c r="P2" t="n">
-        <v>77161.27852224627</v>
+        <v>124222.5220184881</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99068.33875777952</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60167.90937904643</v>
+        <v>60167.90937904642</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>86983.58097086086</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7280.210676182896</v>
+        <v>7280.210676182895</v>
       </c>
       <c r="C4" t="n">
-        <v>7280.210676182896</v>
+        <v>7280.210676182895</v>
       </c>
       <c r="D4" t="n">
-        <v>7280.210676182895</v>
+        <v>7280.210676182897</v>
       </c>
       <c r="E4" t="n">
         <v>7280.210676182896</v>
       </c>
       <c r="F4" t="n">
-        <v>7280.210676182895</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="G4" t="n">
-        <v>7280.210676182896</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="H4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="I4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="J4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="K4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="L4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="M4" t="n">
         <v>11907.28194961662</v>
       </c>
       <c r="N4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="O4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="P4" t="n">
-        <v>7280.210676182896</v>
+        <v>11907.28194961662</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54793.37131355886</v>
+        <v>-54793.37131355887</v>
       </c>
       <c r="C6" t="n">
+        <v>22271.84055766376</v>
+      </c>
+      <c r="D6" t="n">
         <v>22271.84055766377</v>
       </c>
-      <c r="D6" t="n">
-        <v>22271.84055766376</v>
-      </c>
       <c r="E6" t="n">
-        <v>55899.44055766379</v>
+        <v>55899.44055766376</v>
       </c>
       <c r="F6" t="n">
         <v>55899.44055766379</v>
       </c>
       <c r="G6" t="n">
-        <v>55899.4405576638</v>
+        <v>-22710.95596608121</v>
       </c>
       <c r="H6" t="n">
-        <v>-21165.3908438445</v>
+        <v>76357.38279169834</v>
       </c>
       <c r="I6" t="n">
+        <v>76357.38279169834</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16189.47341265192</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76357.38279169834</v>
+      </c>
+      <c r="L6" t="n">
         <v>76357.38279169833</v>
       </c>
-      <c r="J6" t="n">
-        <v>16189.47341265189</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76357.38279169833</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76357.38279169836</v>
-      </c>
       <c r="M6" t="n">
-        <v>76357.38279169833</v>
+        <v>76357.3827916983</v>
       </c>
       <c r="N6" t="n">
         <v>76357.38279169833</v>
       </c>
       <c r="O6" t="n">
-        <v>76357.38279169833</v>
+        <v>-10626.19817916251</v>
       </c>
       <c r="P6" t="n">
-        <v>55899.44055766379</v>
+        <v>76357.38279169836</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="H4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
         <v>220.6696226073169</v>
@@ -34708,13 +34710,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="O3" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L3" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>33.95693559625762</v>
       </c>
       <c r="P5" t="n">
-        <v>33.95693559625762</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,22 +35017,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M6" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>106.4120648096125</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>229.9609751381512</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M8" t="n">
         <v>229.9609751381512</v>
@@ -35185,10 +35187,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N9" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N11" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L12" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>106.4120648096124</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M15" t="n">
         <v>229.9609751381512</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9609751381512</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>229.9609751381512</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="O18" t="n">
-        <v>220.6696226073168</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36364,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>316.5014571302088</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36610,7 +36612,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36682,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>292.470543168895</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
-        <v>414.9454010832019</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36844,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>259.1834758025645</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,7 +37083,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>302.9262961593802</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37318,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P35" t="n">
-        <v>168.1956421958672</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>77.48990379225647</v>
       </c>
       <c r="M36" t="n">
-        <v>587.9315396301777</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37555,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096508</v>
       </c>
       <c r="N39" t="n">
-        <v>259.1834758025645</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>338.729912508998</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>34.48300429637414</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>229.9609751381512</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>229.9609751381512</v>
+        <v>5.398724908590651</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>33.95693559625767</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>229.9609751381512</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576763</v>
       </c>
       <c r="O45" t="n">
-        <v>220.6696226073169</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>229.9609751381512</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286684.659827113</v>
+        <v>278982.3023752716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037395.839817929</v>
+        <v>6037395.839817919</v>
       </c>
     </row>
     <row r="8">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.39658611529718</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.41874232709028</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>102.7579950781728</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U4" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
-        <v>78.98621211465068</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46.39658611529718</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T5" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="X5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.45168316362484</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>143.1600616127304</v>
       </c>
     </row>
     <row r="7">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.761703922407411</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>79.88764742793472</v>
       </c>
       <c r="T7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>8.78360153796395</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.08822281599025586</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>92.94867414296913</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -1229,10 +1229,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.440424418535629</v>
       </c>
     </row>
     <row r="10">
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>78.98621211465068</v>
+        <v>186.0706064107697</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>211.2450056236572</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>229.9609751381512</v>
@@ -1384,7 +1384,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.3667956667111</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>100.3744244784461</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>23.25994061538802</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -1584,19 +1584,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14.97687660480349</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>93.52529077486081</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5487336740557</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>98.9701381312277</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.859219748854</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>237.4018274518895</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>10.73981007568153</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>105.0093910323394</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>61.24043455025507</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -2256,7 +2256,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>124.8665353205015</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>21.34821641893338</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>206.7183075112443</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.0141258892106</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>136.9453936793724</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>165.7452689753808</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>372.4089305243864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>95.98918911403655</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3015,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.61153143263847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>25.35996799970722</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,10 +3094,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>178.6874769548538</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>174.8701987037817</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>271.4782620917436</v>
+        <v>79.34671579372738</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.98918911403655</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>136.9453936793724</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.8501556356427</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>10.68255475256806</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>226.3816667732198</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2666781675496</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>300.6349201712314</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>112.381462902226</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>319.6691071661385</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>146.8680770273344</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>99.74752572191147</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.26211651135227</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C2" t="n">
-        <v>65.26211651135227</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D2" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E2" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="F2" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G2" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H2" t="n">
         <v>18.39687801105209</v>
@@ -4330,16 +4330,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L2" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M2" t="n">
-        <v>692.182535165835</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N2" t="n">
         <v>919.8439005526046</v>
@@ -4357,25 +4357,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T2" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
-        <v>297.5459297822121</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V2" t="n">
-        <v>65.26211651135227</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W2" t="n">
-        <v>65.26211651135227</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X2" t="n">
-        <v>65.26211651135227</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.26211651135227</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>429.8856289850839</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C3" t="n">
-        <v>429.8856289850839</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D3" t="n">
-        <v>299.7966616065643</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E3" t="n">
-        <v>299.7966616065643</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F3" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G3" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H3" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N3" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="O3" t="n">
         <v>464.5211697790654</v>
@@ -4433,28 +4433,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T3" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U3" t="n">
-        <v>760.996180350538</v>
+        <v>574.8500801311152</v>
       </c>
       <c r="V3" t="n">
-        <v>760.996180350538</v>
+        <v>352.3100785021823</v>
       </c>
       <c r="W3" t="n">
-        <v>760.996180350538</v>
+        <v>122.1928326354691</v>
       </c>
       <c r="X3" t="n">
-        <v>760.996180350538</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y3" t="n">
-        <v>581.6819634260453</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>360.8430140968712</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5592008260114</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V4" t="n">
-        <v>48.77514818495014</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.6806912819119</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C5" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D5" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E5" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F5" t="n">
         <v>18.39687801105209</v>
@@ -4567,25 +4567,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>473.7196087845913</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M5" t="n">
-        <v>701.380974171361</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N5" t="n">
-        <v>701.380974171361</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O5" t="n">
-        <v>734.998340411656</v>
+        <v>846.030747080189</v>
       </c>
       <c r="P5" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
@@ -4594,25 +4594,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V5" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="W5" t="n">
-        <v>715.2483178236314</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X5" t="n">
-        <v>482.9645045527716</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.9645045527716</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>321.1053601114104</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C6" t="n">
-        <v>170.4511296715026</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D6" t="n">
-        <v>170.4511296715026</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>34.00463878239032</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>34.00463878239032</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>34.00463878239032</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>34.00463878239032</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K6" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1732256175491</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N6" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O6" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
@@ -4673,25 +4673,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>574.8500801311152</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>352.3100785021823</v>
       </c>
       <c r="W6" t="n">
-        <v>689.7266546858915</v>
+        <v>352.3100785021823</v>
       </c>
       <c r="X6" t="n">
-        <v>500.4195770359032</v>
+        <v>163.0030008521939</v>
       </c>
       <c r="Y6" t="n">
-        <v>321.1053601114104</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="7">
@@ -4749,22 +4749,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>918.064401641082</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S7" t="n">
         <v>715.2483178236314</v>
       </c>
       <c r="T7" t="n">
+        <v>715.2483178236314</v>
+      </c>
+      <c r="U7" t="n">
+        <v>715.2483178236314</v>
+      </c>
+      <c r="V7" t="n">
         <v>482.9645045527716</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="V7" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="W7" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="X7" t="n">
         <v>18.39687801105209</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C8" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D8" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E8" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F8" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4804,7 +4804,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
         <v>236.8598043922958</v>
@@ -4834,19 +4834,19 @@
         <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>491.8368293385938</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U8" t="n">
-        <v>482.9645045527716</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V8" t="n">
-        <v>482.9645045527716</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W8" t="n">
-        <v>482.9645045527716</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X8" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y8" t="n">
         <v>482.9645045527716</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>760.996180350538</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="C9" t="n">
-        <v>667.1086307111752</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="D9" t="n">
-        <v>537.0196633326556</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E9" t="n">
-        <v>400.5731724435433</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F9" t="n">
-        <v>276.1413663266751</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G9" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4886,22 +4886,22 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="L9" t="n">
         <v>359.1732256175491</v>
       </c>
-      <c r="L9" t="n">
-        <v>586.8345910043187</v>
-      </c>
       <c r="M9" t="n">
-        <v>814.4959563910883</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N9" t="n">
-        <v>919.8439005526046</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O9" t="n">
-        <v>919.8439005526046</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
@@ -4922,13 +4922,13 @@
         <v>760.996180350538</v>
       </c>
       <c r="W9" t="n">
-        <v>760.996180350538</v>
+        <v>530.8789344838249</v>
       </c>
       <c r="X9" t="n">
-        <v>760.996180350538</v>
+        <v>530.8789344838249</v>
       </c>
       <c r="Y9" t="n">
-        <v>760.996180350538</v>
+        <v>529.4239603236879</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.77514818495014</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="C10" t="n">
-        <v>48.77514818495014</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="D10" t="n">
-        <v>48.77514818495014</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="E10" t="n">
-        <v>48.77514818495014</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F10" t="n">
-        <v>48.77514818495014</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5592008260114</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V10" t="n">
-        <v>48.77514818495014</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="W10" t="n">
-        <v>48.77514818495014</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="X10" t="n">
-        <v>48.77514818495014</v>
+        <v>499.6099797961188</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.77514818495014</v>
+        <v>499.6099797961188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C11" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D11" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E11" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F11" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G11" t="n">
         <v>18.39687801105209</v>
@@ -5041,25 +5041,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K11" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L11" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M11" t="n">
-        <v>464.5211697790654</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N11" t="n">
-        <v>692.182535165835</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P11" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q11" t="n">
         <v>919.8439005526046</v>
@@ -5071,22 +5071,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="W11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="X11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="Y11" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.39687801105209</v>
+        <v>488.8257997828646</v>
       </c>
       <c r="C12" t="n">
-        <v>18.39687801105209</v>
+        <v>338.1715693429568</v>
       </c>
       <c r="D12" t="n">
-        <v>18.39687801105209</v>
+        <v>208.0826019644371</v>
       </c>
       <c r="E12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="F12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G12" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H12" t="n">
         <v>18.39687801105209</v>
@@ -5126,46 +5126,46 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L12" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M12" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="N12" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O12" t="n">
         <v>473.7196087845913</v>
       </c>
-      <c r="O12" t="n">
-        <v>701.380974171361</v>
-      </c>
       <c r="P12" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R12" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S12" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T12" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U12" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V12" t="n">
-        <v>697.3038989236717</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="W12" t="n">
-        <v>467.1866530569586</v>
+        <v>488.8257997828646</v>
       </c>
       <c r="X12" t="n">
-        <v>277.8795754069702</v>
+        <v>488.8257997828646</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.56535848247745</v>
+        <v>488.8257997828646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C13" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D13" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E13" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F13" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G13" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H13" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5223,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S13" t="n">
-        <v>593.126827367731</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T13" t="n">
-        <v>360.8430140968712</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U13" t="n">
-        <v>360.8430140968712</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V13" t="n">
-        <v>360.8430140968712</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="W13" t="n">
-        <v>360.8430140968712</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="X13" t="n">
-        <v>360.8430140968712</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C14" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D14" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E14" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F14" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G14" t="n">
         <v>18.39687801105209</v>
@@ -5290,40 +5290,40 @@
         <v>473.7196087845913</v>
       </c>
       <c r="N14" t="n">
-        <v>701.380974171361</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O14" t="n">
         <v>701.380974171361</v>
       </c>
       <c r="P14" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R14" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S14" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T14" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.39687801105209</v>
+        <v>496.4030440206448</v>
       </c>
       <c r="C15" t="n">
-        <v>18.39687801105209</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="D15" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="E15" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F15" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G15" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H15" t="n">
         <v>18.39687801105209</v>
@@ -5357,52 +5357,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L15" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M15" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="N15" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="O15" t="n">
         <v>692.182535165835</v>
       </c>
-      <c r="O15" t="n">
-        <v>919.8439005526046</v>
-      </c>
       <c r="P15" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R15" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S15" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T15" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U15" t="n">
-        <v>709.7807572312464</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2407556023135</v>
+        <v>496.4030440206448</v>
       </c>
       <c r="W15" t="n">
-        <v>257.1235097356004</v>
+        <v>496.4030440206448</v>
       </c>
       <c r="X15" t="n">
-        <v>67.81643208561201</v>
+        <v>496.4030440206448</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.39687801105209</v>
+        <v>496.4030440206448</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.39687801105209</v>
+        <v>825.373909870927</v>
       </c>
       <c r="C16" t="n">
-        <v>18.39687801105209</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="D16" t="n">
-        <v>18.39687801105209</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E16" t="n">
-        <v>18.39687801105209</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F16" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G16" t="n">
         <v>18.39687801105209</v>
@@ -5460,28 +5460,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R16" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5592008260114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1965.153759365782</v>
+        <v>1256.234751994065</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.978257868713</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D17" t="n">
-        <v>1186.537129085381</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E17" t="n">
-        <v>783.9536042019251</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F17" t="n">
-        <v>367.0591657319029</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>2042.178066140407</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>2042.178066140407</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>1652.725461073464</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.648505077179</v>
+        <v>1256.234751994065</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>963.7331842818107</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5700,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>834.4501588705843</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>598.7311070388184</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>313.2923152807194</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="V19" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1345.1624478458</v>
+        <v>1281.393958586371</v>
       </c>
       <c r="C20" t="n">
-        <v>951.9869463487307</v>
+        <v>888.2184570893016</v>
       </c>
       <c r="D20" t="n">
-        <v>566.5458175653985</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E20" t="n">
-        <v>566.5458175653985</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>566.5458175653985</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>153.3830620534016</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>2142.147902636596</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V20" t="n">
-        <v>2142.147902636596</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W20" t="n">
-        <v>2142.147902636596</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X20" t="n">
-        <v>2142.147902636596</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y20" t="n">
-        <v>1745.657193557197</v>
+        <v>1681.888704297768</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6182020620834</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="C22" t="n">
-        <v>654.6538853416623</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D22" t="n">
-        <v>499.0207722441771</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E22" t="n">
-        <v>499.0207722441771</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F22" t="n">
-        <v>341.69483745715</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G22" t="n">
-        <v>173.4407835565956</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5934,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1187.142300930505</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="C23" t="n">
-        <v>1187.142300930505</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D23" t="n">
-        <v>1187.142300930505</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E23" t="n">
-        <v>784.5587760470498</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.08465010856</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W23" t="n">
-        <v>1973.085615076847</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X23" t="n">
-        <v>1583.633010009904</v>
+        <v>1458.949654289774</v>
       </c>
       <c r="Y23" t="n">
-        <v>1187.142300930505</v>
+        <v>1250.143283066295</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6113,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1464.201482535627</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.201482535627</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.201482535627</v>
+        <v>669.2258901781879</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.201482535627</v>
+        <v>513.6670780373904</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535627</v>
+        <v>356.3411432503634</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535627</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.648505077179</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.648505077179</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T25" t="n">
-        <v>2298.950021541724</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.511229783625</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V25" t="n">
-        <v>1747.531884604449</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W25" t="n">
-        <v>1464.201482535627</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X25" t="n">
-        <v>1464.201482535627</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y25" t="n">
-        <v>1464.201482535627</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2058.57031924742</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C26" t="n">
-        <v>1665.394817750351</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D26" t="n">
-        <v>1279.953688967018</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3701640835627</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1577.421412053329</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.648505077179</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="X26" t="n">
-        <v>2365.648505077179</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="Y26" t="n">
-        <v>2365.648505077179</v>
+        <v>1201.453214517072</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.164039799289</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6414,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1989.47786818386</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="C29" t="n">
-        <v>1989.47786818386</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D29" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E29" t="n">
         <v>1201.453214517072</v>
@@ -6457,58 +6457,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.648505077179</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.648505077179</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.648505077179</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="Y29" t="n">
-        <v>1989.47786818386</v>
+        <v>1594.628716014141</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.648505077179</v>
+        <v>851.8012157602309</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.648505077179</v>
+        <v>851.8012157602309</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.648505077179</v>
+        <v>616.082163928465</v>
       </c>
       <c r="U31" t="n">
-        <v>2080.20971331908</v>
+        <v>330.643372170366</v>
       </c>
       <c r="V31" t="n">
-        <v>2080.20971331908</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W31" t="n">
-        <v>1796.879311250258</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>1562.798989033241</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>440.488471598613</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>503.6092283712866</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U32" t="n">
-        <v>2340.032375784546</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V32" t="n">
-        <v>1997.925566488064</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W32" t="n">
-        <v>1626.926531456352</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X32" t="n">
-        <v>1237.473926389409</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="Y32" t="n">
-        <v>840.9832173100099</v>
+        <v>788.2904590050753</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M33" t="n">
-        <v>858.0088487631988</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>824.8590032756731</v>
+        <v>536.404376464076</v>
       </c>
       <c r="V34" t="n">
-        <v>824.8590032756731</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W34" t="n">
-        <v>824.8590032756731</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X34" t="n">
-        <v>824.8590032756731</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1965.153759365782</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="C35" t="n">
-        <v>1571.978257868713</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="D35" t="n">
-        <v>1186.537129085381</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="E35" t="n">
-        <v>783.9536042019251</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="F35" t="n">
-        <v>783.9536042019251</v>
+        <v>589.8813352140299</v>
       </c>
       <c r="G35" t="n">
         <v>509.7331374425881</v>
@@ -6934,7 +6934,7 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
@@ -6946,43 +6946,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N35" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.648505077179</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.648505077179</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.648505077179</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L36" t="n">
-        <v>443.767120918104</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M36" t="n">
-        <v>1029.265125924706</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N36" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7122,25 +7122,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>851.8012157602309</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>616.082163928465</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U37" t="n">
-        <v>330.643372170366</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V37" t="n">
         <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1256.051951669587</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C38" t="n">
-        <v>862.876450172517</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="D38" t="n">
-        <v>862.876450172517</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="E38" t="n">
-        <v>460.2929252890615</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F38" t="n">
-        <v>460.2929252890615</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
         <v>191.9627430103717</v>
@@ -7180,46 +7180,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V38" t="n">
-        <v>2023.541695780698</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W38" t="n">
-        <v>1652.542660748985</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X38" t="n">
-        <v>1652.542660748985</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y38" t="n">
-        <v>1256.051951669587</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154356</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K39" t="n">
-        <v>367.05211616377</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620832</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.69124027544164</v>
+        <v>528.6297521715456</v>
       </c>
       <c r="C40" t="n">
-        <v>77.69124027544164</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="D40" t="n">
-        <v>77.69124027544164</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E40" t="n">
-        <v>77.69124027544164</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F40" t="n">
-        <v>77.69124027544164</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G40" t="n">
-        <v>77.69124027544164</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H40" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7356,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W40" t="n">
-        <v>720.0916423671165</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X40" t="n">
-        <v>486.0113201500996</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y40" t="n">
-        <v>262.8992589667429</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.663050286384</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.663050286384</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D41" t="n">
-        <v>1183.221921503051</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E41" t="n">
-        <v>780.6383966195958</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F41" t="n">
-        <v>363.7439581495736</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M41" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N41" t="n">
-        <v>1925.608904184851</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.648505077179</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
@@ -7499,19 +7499,19 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
         <v>2341.731461975244</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.3699231780811</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7593,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U43" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V43" t="n">
-        <v>682.7806474639203</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W43" t="n">
-        <v>399.450245395098</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X43" t="n">
-        <v>165.3699231780811</v>
+        <v>425.9035823234063</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.3699231780811</v>
+        <v>202.7915211400496</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>772.7945830316037</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="C44" t="n">
-        <v>772.7945830316037</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D44" t="n">
-        <v>772.7945830316037</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E44" t="n">
-        <v>370.2110581481482</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154359</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
         <v>191.9627430103717</v>
@@ -7657,43 +7657,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.421412053329</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T44" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U44" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V44" t="n">
-        <v>1544.288363774713</v>
+        <v>1789.289840906266</v>
       </c>
       <c r="W44" t="n">
-        <v>1173.289328743001</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.289328743001</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="Y44" t="n">
-        <v>1173.289328743001</v>
+        <v>1418.290805874553</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.4279523212709</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818106</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M45" t="n">
-        <v>963.7331842818106</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7830,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U46" t="n">
-        <v>663.3212008849971</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V46" t="n">
-        <v>397.3418557058213</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="W46" t="n">
-        <v>114.011453636999</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>303.7011596858081</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -8069,10 +8069,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P3" t="n">
         <v>317.0443399574658</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>183.520773020354</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>224.8601881221531</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
@@ -8303,19 +8303,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>193.4954296289271</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>363.7280257865542</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L8" t="n">
         <v>383.2091448686429</v>
@@ -8534,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N9" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L11" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>370.3946742050441</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
-        <v>379.5248125622476</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P11" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8774,22 +8774,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M12" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q12" t="n">
-        <v>311.6577757632308</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8938,16 +8938,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P14" t="n">
-        <v>370.971069848242</v>
+        <v>184.2583828371828</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M15" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N15" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>322.6485340270401</v>
@@ -9026,7 +9026,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9178,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>569.9919810238536</v>
+        <v>265.8235510992406</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>457.1386964627902</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9415,7 +9415,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095472</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9652,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N24" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>394.3609707612346</v>
       </c>
       <c r="P26" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,13 +9962,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>384.8576652182069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10126,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N30" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>614.1534811140705</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10594,16 +10594,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10664,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>167.5502506491747</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10828,22 +10828,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,10 +10910,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>99.85242174740841</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>487.848403846782</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>577.0069902189988</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,19 +11305,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>155.1237765063179</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11381,13 +11381,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118429</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22552,19 +22552,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>335.1901313802018</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>210.1758671836386</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22597,16 +22597,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>99.76874572860923</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>84.65601179531564</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -22728,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U4" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>184.3333396127333</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>366.3289079700248</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22834,10 +22834,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22846,10 +22846,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>164.7394177797119</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22865,13 +22865,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -22883,7 +22883,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>33.44169828458268</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>34.36101314251744</v>
       </c>
     </row>
     <row r="7">
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>120.9002755513414</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -23035,10 +23035,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>244.4116007317834</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23086,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>385.4698562002835</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>56.19901399253958</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23117,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>176.0806503367122</v>
       </c>
     </row>
     <row r="10">
@@ -23184,16 +23184,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -23202,7 +23202,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>184.3333396127333</v>
+        <v>77.24894531661428</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>185.2447926306257</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>179.0370905938154</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>168.5967144964697</v>
@@ -23272,7 +23272,7 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G11" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23311,7 +23311,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.91157542984062</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>34.70760150177506</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -23354,7 +23354,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H12" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>48.89338144820752</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>143.3115727461609</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>3.400886175297046</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>219.1192366491158</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>196.0080627329374</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>244.4116007317834</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23576,22 +23576,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>134.1708115307052</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>48.89338144820752</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>89.83064772952746</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>92.48239428282119</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23785,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>239.7156030722891</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23940,16 +23940,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>45.1825763886286</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>370.8469074198174</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>215.8328288968348</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>107.2626322044156</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>29.0572302076195</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>317.3375247845834</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>185.8074944773606</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>14.55738747233835</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>167.3303626133472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.48239428282091</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>230.343651002023</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24603,22 +24603,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24654,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600601</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24682,13 +24682,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>201.5437757060146</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>20.11687146421849</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>26.67279035971225</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.2694091388846</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24928,13 +24928,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>227.8352342700401</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>206.87060206142</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25083,22 +25083,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25143,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>137.5528658651332</v>
+        <v>329.6844121631494</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25362,16 +25362,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>104.7987338652396</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>261.6122959552484</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1809723212340941</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>172.6733837518202</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25566,13 +25566,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
@@ -25605,19 +25605,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>54.11543127491436</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>95.76444978932722</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>84.92315884504234</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>51.62668320889858</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25803,7 +25803,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
@@ -25842,19 +25842,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>119.3580560926207</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>93.05638691918347</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>191.8176641761824</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>83.60841278247679</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420945.8390147597</v>
+        <v>420945.8390147596</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677730.397527859</v>
+        <v>677730.3975278594</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677730.3975278584</v>
+        <v>677730.3975278587</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677730.3975278592</v>
+        <v>677730.3975278587</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677730.3975278587</v>
+        <v>677730.3975278594</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677730.397527859</v>
+        <v>677730.3975278594</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677730.397527859</v>
+        <v>677730.3975278594</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677730.397527859</v>
+        <v>677730.3975278584</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677730.397527859</v>
+        <v>677730.3975278591</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677730.3975278592</v>
+        <v>677730.397527859</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77161.27852224624</v>
+        <v>77161.27852224627</v>
       </c>
       <c r="C2" t="n">
-        <v>77161.27852224624</v>
+        <v>77161.27852224626</v>
       </c>
       <c r="D2" t="n">
+        <v>77161.27852224628</v>
+      </c>
+      <c r="E2" t="n">
         <v>77161.27852224626</v>
       </c>
-      <c r="E2" t="n">
-        <v>77161.27852224624</v>
-      </c>
       <c r="F2" t="n">
-        <v>77161.27852224627</v>
+        <v>77161.27852224626</v>
       </c>
       <c r="G2" t="n">
         <v>124222.5220184881</v>
@@ -26346,7 +26346,7 @@
         <v>124222.5220184881</v>
       </c>
       <c r="M2" t="n">
-        <v>124222.522018488</v>
+        <v>124222.5220184881</v>
       </c>
       <c r="N2" t="n">
         <v>124222.5220184881</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99068.33875777952</v>
+        <v>99068.33875777958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60167.90937904642</v>
+        <v>60167.90937904643</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>86983.58097086086</v>
+        <v>86983.58097086092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7280.210676182895</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="C4" t="n">
-        <v>7280.210676182895</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="D4" t="n">
-        <v>7280.210676182897</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="E4" t="n">
         <v>7280.210676182896</v>
@@ -26432,34 +26432,34 @@
         <v>7280.210676182896</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="H4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="I4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="J4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="K4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="L4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="M4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="N4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="O4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="P4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54793.37131355887</v>
+        <v>-55895.22692610835</v>
       </c>
       <c r="C6" t="n">
-        <v>22271.84055766376</v>
+        <v>21169.98494511426</v>
       </c>
       <c r="D6" t="n">
-        <v>22271.84055766377</v>
+        <v>21169.98494511429</v>
       </c>
       <c r="E6" t="n">
-        <v>55899.44055766376</v>
+        <v>54797.58494511426</v>
       </c>
       <c r="F6" t="n">
-        <v>55899.44055766379</v>
+        <v>54797.58494511426</v>
       </c>
       <c r="G6" t="n">
-        <v>-22710.95596608121</v>
+        <v>-23384.98209230127</v>
       </c>
       <c r="H6" t="n">
-        <v>76357.38279169834</v>
+        <v>75683.35666547832</v>
       </c>
       <c r="I6" t="n">
-        <v>76357.38279169834</v>
+        <v>75683.35666547829</v>
       </c>
       <c r="J6" t="n">
-        <v>16189.47341265192</v>
+        <v>15515.44728643191</v>
       </c>
       <c r="K6" t="n">
-        <v>76357.38279169834</v>
+        <v>75683.35666547832</v>
       </c>
       <c r="L6" t="n">
-        <v>76357.38279169833</v>
+        <v>75683.35666547826</v>
       </c>
       <c r="M6" t="n">
-        <v>76357.3827916983</v>
+        <v>75683.35666547835</v>
       </c>
       <c r="N6" t="n">
-        <v>76357.38279169833</v>
+        <v>75683.35666547829</v>
       </c>
       <c r="O6" t="n">
-        <v>-10626.19817916251</v>
+        <v>-11300.22430538261</v>
       </c>
       <c r="P6" t="n">
-        <v>76357.38279169836</v>
+        <v>75683.35666547829</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="P3" t="n">
         <v>229.9609751381512</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>33.95693559625762</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="P6" t="n">
-        <v>106.4120648096125</v>
-      </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>220.6696226073169</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="L8" t="n">
         <v>229.9609751381512</v>
@@ -35254,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N9" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O11" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,16 +35658,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>220.6696226073168</v>
+        <v>33.95693559625762</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M15" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>229.9609751381512</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35898,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>484.6198681696869</v>
+        <v>180.451438245074</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>303.8905267322986</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36135,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553806</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36372,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N24" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,13 +36682,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>292.470543168895</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36846,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N30" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>460.9053113835787</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>77.48990379225647</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37548,22 +37548,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37630,10 +37630,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>7.465299698096508</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>338.729912508998</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37867,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>484.6198681696869</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>5.398724908590651</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576763</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
